--- a/Data/EC/NIT-8290011935.xlsx
+++ b/Data/EC/NIT-8290011935.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D6FFA64-F9FA-4E5A-BCCA-9928DC4AF348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F29416E-1C71-42B2-9F29-519423D482BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AA976BA6-351E-4F29-A0B7-4DBAD565023B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFD9A761-0B48-4545-B052-3FC46C64779B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,19 +65,61 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1098632764</t>
+  </si>
+  <si>
+    <t>EDINSON SAENZ ROJAS</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>3718491</t>
+  </si>
+  <si>
+    <t>OSCAR DE JESUS CAUSIL BURGOS</t>
+  </si>
+  <si>
+    <t>1050549637</t>
+  </si>
+  <si>
+    <t>OECSER DAMIAN MACHUCA DAMIAN</t>
+  </si>
+  <si>
+    <t>8865996</t>
+  </si>
+  <si>
+    <t>ADALBERTO ANTONIO CUELLO PEREZ</t>
+  </si>
+  <si>
+    <t>1093770388</t>
+  </si>
+  <si>
+    <t>HELVER ANDRES VARGAS DIAZ</t>
+  </si>
+  <si>
     <t>91324739</t>
   </si>
   <si>
     <t>BENJAMIN HEREDIA BARRAGAN</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>1093770388</t>
-  </si>
-  <si>
-    <t>HELVER ANDRES VARGAS DIAZ</t>
+    <t>1102233009</t>
+  </si>
+  <si>
+    <t>LUZ ANGELA MIER RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1050548186</t>
+  </si>
+  <si>
+    <t>DIANA PATRICIA RICO SIERRA</t>
   </si>
   <si>
     <t>1050555197</t>
@@ -86,10 +128,10 @@
     <t>DEIVISON BALDOVINO ALEMAN</t>
   </si>
   <si>
-    <t>1050548186</t>
-  </si>
-  <si>
-    <t>DIANA PATRICIA RICO SIERRA</t>
+    <t>1104125815</t>
+  </si>
+  <si>
+    <t>MIYER SNEIDER CARPIO DIAZ</t>
   </si>
   <si>
     <t>1002363066</t>
@@ -98,37 +140,19 @@
     <t>LUIS EDUARDO GUERRERO GUERRERO</t>
   </si>
   <si>
-    <t>1104125815</t>
-  </si>
-  <si>
-    <t>MIYER SNEIDER CARPIO DIAZ</t>
-  </si>
-  <si>
-    <t>1102233009</t>
-  </si>
-  <si>
-    <t>LUZ ANGELA MIER RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
   </si>
   <si>
     <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -542,7 +566,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84224BB5-D8A8-0462-865B-F3E67236082F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1277DD5-A912-E6B1-DF69-353DECC9A337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +917,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE486EF-636D-4C66-A397-4DC406248CC7}">
-  <dimension ref="B2:J47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC8377C-A002-4359-B994-DF75935B74A4}">
+  <dimension ref="B2:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -918,7 +942,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +987,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +1019,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1037333</v>
+        <v>1517333</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,14 +1035,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F13" s="5">
         <v>8</v>
@@ -1048,13 +1072,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1085,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1108,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1131,10 +1155,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>11</v>
@@ -1154,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" s="18">
         <v>40000</v>
@@ -1177,13 +1201,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
@@ -1200,10 +1224,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>11</v>
@@ -1223,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
@@ -1252,7 +1276,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
@@ -1269,13 +1293,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1292,13 +1316,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1315,13 +1339,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
@@ -1338,13 +1362,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>40000</v>
@@ -1361,13 +1385,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D29" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>40000</v>
@@ -1384,13 +1408,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F30" s="18">
         <v>40000</v>
@@ -1407,13 +1431,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18">
         <v>40000</v>
@@ -1436,7 +1460,7 @@
         <v>23</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
         <v>40000</v>
@@ -1453,13 +1477,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D33" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="F33" s="18">
         <v>40000</v>
@@ -1476,13 +1500,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18">
         <v>40000</v>
@@ -1499,13 +1523,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F35" s="18">
         <v>40000</v>
@@ -1522,13 +1546,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="F36" s="18">
         <v>40000</v>
@@ -1545,13 +1569,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18">
         <v>40000</v>
@@ -1568,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F38" s="18">
         <v>40000</v>
@@ -1591,13 +1615,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="F39" s="18">
         <v>40000</v>
@@ -1614,13 +1638,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1633,56 +1657,332 @@
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E41" s="22" t="s">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="F41" s="24">
+      <c r="D43" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="20"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="20"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="20"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="18">
         <v>37333</v>
       </c>
-      <c r="G41" s="24">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B46" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="32"/>
-      <c r="H46" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
+      <c r="G46" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B47" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47" s="32"/>
-      <c r="H47" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="20"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="20"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="20"/>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="20"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="20"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="20"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B53" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G53" s="24">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B58" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="32"/>
+      <c r="H58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B59" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="32"/>
+      <c r="H59" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="H58:J58"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
